--- a/biology/Zoologie/Alcelaphinae/Alcelaphinae.xlsx
+++ b/biology/Zoologie/Alcelaphinae/Alcelaphinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alcélaphinés (Alcelaphinae) sont une sous-famille de mammifères artiodactyles de la famille des Bovidés. Dans d'autres classifications, ils correspondent à la tribu Alcelaphini (Brooke in Wallace, 1876).
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces actuelles
-Liste des espèces selon ITIS :
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces selon ITIS :
 Connochaetes -- gnous
 Connochaetes gnou (Zimmermann, 1780) — gnou à queue blanche
 Connochaetes taurinus (Burchell, 1823) — gnou bleu
@@ -531,14 +548,49 @@
 Alcelaphus buselaphus cokei
 Alcelaphus caama -- Bubale caama
 Alcelaphus lichtensteinii -- Bubale de Lichtenstein
-On a élevé au rang d'espèce[1] Damaliscus korrigum et Damaliscus superstes (Cotterill, 2003) qui étaient considérés comme des sous-espèces de Damaliscus lunatus.
+On a élevé au rang d'espèce Damaliscus korrigum et Damaliscus superstes (Cotterill, 2003) qui étaient considérés comme des sous-espèces de Damaliscus lunatus.
 			Alcelaphus buselaphus (bubale roux)
 			Damaliscus/Beatragus hunteri (hirola)
 			Connochaetes gnou (gnou à queue blanche)
 			Damaliscus pygargus (damalisque à queue blanche)
 			Alcelaphus/Sigmoceros lichtensteinii (Bubale de Lichtenstein)
-Genres fossiles
-Listes des genres fossiles d'après Biolib :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alcelaphinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcelaphinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Listes des genres fossiles d'après Biolib :
 genre Awashia Vrba, 1997 †
 genre Damalacra Gentry, 1980 †
 genre Damalborea Gentry, 2010 †
@@ -551,35 +603,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Alcelaphinae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alcelaphinae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein de la famille
-Phylogénie des Bovidés par tribus, d'après Calamari (2021)[2] :
-Dans la famille
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Au sein de la famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Bovidés par tribus, d'après Calamari (2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alcelaphinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcelaphinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dans la famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
